--- a/python/basedosdados/bases/br_mec_prouni.bolsas/architeture/[dicionario] bolsas.xlsx
+++ b/python/basedosdados/bases/br_mec_prouni.bolsas/architeture/[dicionario] bolsas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucaspb/Documents/Arquivos Profissionais/BD/Bases/ br_mec_prouni.bolsas/architeture/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucaspb/git-repositories/portfolio-projects/python/basedosdados/bases/br_mec_prouni.bolsas/architeture/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECB89CB-BA31-C34E-BB43-4B0C6DEDBE8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B6BD29-1425-114F-A855-9F981E812A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -178,7 +178,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="33">
   <si>
     <t>id_tabela</t>
   </si>
@@ -271,6 +271,12 @@
   </si>
   <si>
     <t>bolsas</t>
+  </si>
+  <si>
+    <t>Parcial (25%)</t>
+  </si>
+  <si>
+    <t>2008</t>
   </si>
 </sst>
 </file>
@@ -549,10 +555,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -873,16 +879,16 @@
         <v>30</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -893,12 +899,29 @@
         <v>21</v>
       </c>
       <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
         <v>2</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="D21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>29</v>
       </c>
     </row>
